--- a/data/trans_orig/P68-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P68-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>84385</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>69688</v>
+        <v>70210</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>101394</v>
+        <v>102377</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3429364425246568</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2832086967368698</v>
+        <v>0.2853298437506821</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4120602426737435</v>
+        <v>0.4160516433697528</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>42</v>
@@ -765,19 +765,19 @@
         <v>45467</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>33745</v>
+        <v>34774</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>59197</v>
+        <v>58825</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2092140815886293</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1552768908526703</v>
+        <v>0.1600079352405575</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2723917432974964</v>
+        <v>0.2706801793800854</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>121</v>
@@ -786,19 +786,19 @@
         <v>129853</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>110695</v>
+        <v>111787</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>149949</v>
+        <v>150974</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2802224130920921</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2388800771917472</v>
+        <v>0.2412358491054785</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3235899866194242</v>
+        <v>0.3258020365113207</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>161682</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>144673</v>
+        <v>143690</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>176379</v>
+        <v>175857</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6570635574753432</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5879397573262565</v>
+        <v>0.5839483566302472</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7167913032631302</v>
+        <v>0.7146701562493178</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>158</v>
@@ -836,19 +836,19 @@
         <v>171857</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>158127</v>
+        <v>158499</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>183579</v>
+        <v>182550</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7907859184113707</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.727608256702503</v>
+        <v>0.7293198206199146</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8447231091473297</v>
+        <v>0.8399920647594424</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>311</v>
@@ -857,19 +857,19 @@
         <v>333538</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>313442</v>
+        <v>312417</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>352696</v>
+        <v>351604</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7197775869079079</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6764100133805758</v>
+        <v>0.6741979634886793</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7611199228082528</v>
+        <v>0.7587641508945215</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>172478</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>150383</v>
+        <v>150800</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>196548</v>
+        <v>194412</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2694643880051764</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2349445309831192</v>
+        <v>0.2355965025426668</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3070682226059959</v>
+        <v>0.3037311640907511</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>64</v>
@@ -982,19 +982,19 @@
         <v>65489</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>51913</v>
+        <v>52757</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>79293</v>
+        <v>80653</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2275802269325362</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1804028954263284</v>
+        <v>0.1833338945920764</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2755489529452466</v>
+        <v>0.2802775245860123</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>227</v>
@@ -1003,19 +1003,19 @@
         <v>237967</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>212342</v>
+        <v>213091</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>264023</v>
+        <v>265124</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2564743510568848</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2288562799999638</v>
+        <v>0.2296633540052818</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2845567630030733</v>
+        <v>0.2857431098709828</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>467600</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>443530</v>
+        <v>445666</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>489695</v>
+        <v>489278</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7305356119948235</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6929317773940044</v>
+        <v>0.696268835909249</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7650554690168808</v>
+        <v>0.7644034974573333</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>209</v>
@@ -1053,19 +1053,19 @@
         <v>222273</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>208469</v>
+        <v>207109</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>235849</v>
+        <v>235005</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7724197730674638</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7244510470547534</v>
+        <v>0.7197224754139878</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8195971045736716</v>
+        <v>0.8166661054079236</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>658</v>
@@ -1074,19 +1074,19 @@
         <v>689873</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>663817</v>
+        <v>662716</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>715498</v>
+        <v>714749</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7435256489431151</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7154432369969266</v>
+        <v>0.7142568901290167</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7711437200000361</v>
+        <v>0.7703366459947179</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>146885</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>125592</v>
+        <v>125286</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>169757</v>
+        <v>171346</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2110693779422459</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1804719994289917</v>
+        <v>0.1800327584877081</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2439356380665915</v>
+        <v>0.2462199537343201</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>78</v>
@@ -1199,19 +1199,19 @@
         <v>77783</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>62949</v>
+        <v>61526</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>94736</v>
+        <v>92888</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2209571732834075</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.178817194094689</v>
+        <v>0.1747757919897873</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2691153222783216</v>
+        <v>0.2638661471500995</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>220</v>
@@ -1220,19 +1220,19 @@
         <v>224668</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>199783</v>
+        <v>195204</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>252519</v>
+        <v>251839</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.214390937142195</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1906440373387933</v>
+        <v>0.1862749713355143</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2409681651204013</v>
+        <v>0.2403191749710765</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>549022</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>526150</v>
+        <v>524561</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>570315</v>
+        <v>570621</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7889306220577541</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7560643619334082</v>
+        <v>0.75378004626568</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8195280005710079</v>
+        <v>0.8199672415122919</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>265</v>
@@ -1270,19 +1270,19 @@
         <v>274245</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>257292</v>
+        <v>259140</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>289079</v>
+        <v>290502</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7790428267165924</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7308846777216776</v>
+        <v>0.7361338528499004</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8211828059053109</v>
+        <v>0.8252242080102127</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>796</v>
@@ -1291,19 +1291,19 @@
         <v>823267</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>795416</v>
+        <v>796096</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>848152</v>
+        <v>852731</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7856090628578051</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7590318348795987</v>
+        <v>0.7596808250289234</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8093559626612066</v>
+        <v>0.8137250286644857</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>67736</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>54920</v>
+        <v>53759</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>83671</v>
+        <v>84987</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2225903565738409</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1804748852851401</v>
+        <v>0.1766609185434045</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2749545306477928</v>
+        <v>0.2792796158314898</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>31</v>
@@ -1416,19 +1416,19 @@
         <v>31382</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>21931</v>
+        <v>23218</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>41841</v>
+        <v>42246</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1964056354603262</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1372552670583657</v>
+        <v>0.1453073606222444</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2618609615193767</v>
+        <v>0.2643948434715394</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>96</v>
@@ -1437,19 +1437,19 @@
         <v>99118</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>81170</v>
+        <v>82714</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>116653</v>
+        <v>117652</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2135751545833594</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1749024054654667</v>
+        <v>0.1782279928591355</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2513586441584187</v>
+        <v>0.2535119396741788</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>236571</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>220636</v>
+        <v>219320</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>249387</v>
+        <v>250548</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.777409643426159</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7250454693522072</v>
+        <v>0.7207203841685101</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.81952511471486</v>
+        <v>0.8233390814565952</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>126</v>
@@ -1487,19 +1487,19 @@
         <v>128401</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>117942</v>
+        <v>117537</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>137852</v>
+        <v>136565</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8035943645396738</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7381390384806231</v>
+        <v>0.7356051565284606</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8627447329416341</v>
+        <v>0.8546926393777556</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>351</v>
@@ -1508,19 +1508,19 @@
         <v>364971</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>347436</v>
+        <v>346437</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>382919</v>
+        <v>381375</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7864248454166406</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7486413558415813</v>
+        <v>0.7464880603258213</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8250975945345335</v>
+        <v>0.8217720071408645</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>471484</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>431514</v>
+        <v>433239</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>508500</v>
+        <v>513764</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.249943932240504</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2287551340338536</v>
+        <v>0.2296697785564101</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.26956715049277</v>
+        <v>0.2723577106890546</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>215</v>
@@ -1633,19 +1633,19 @@
         <v>220121</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>193586</v>
+        <v>194166</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>246003</v>
+        <v>247068</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2164639918330391</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1903691484076095</v>
+        <v>0.1909396358878558</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2419152711204991</v>
+        <v>0.2429627761588407</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>664</v>
@@ -1654,19 +1654,19 @@
         <v>691605</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>645567</v>
+        <v>644847</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>739706</v>
+        <v>739200</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2382172209313399</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2223597304994448</v>
+        <v>0.2221118027923413</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2547851704931426</v>
+        <v>0.2546107762780614</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>1414874</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1377858</v>
+        <v>1372594</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1454844</v>
+        <v>1453119</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.750056067759496</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7304328495072302</v>
+        <v>0.727642289310946</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7712448659661466</v>
+        <v>0.7703302214435905</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>758</v>
@@ -1704,19 +1704,19 @@
         <v>796775</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>770893</v>
+        <v>769828</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>823310</v>
+        <v>822730</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7835360081669609</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.758084728879501</v>
+        <v>0.7570372238411595</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8096308515923905</v>
+        <v>0.8090603641121444</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2116</v>
@@ -1725,19 +1725,19 @@
         <v>2211650</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2163549</v>
+        <v>2164055</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2257688</v>
+        <v>2258408</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7617827790686601</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7452148295068577</v>
+        <v>0.7453892237219386</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7776402695005553</v>
+        <v>0.7778881972076588</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>83418</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>68710</v>
+        <v>68146</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>99871</v>
+        <v>100977</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2987900431701915</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2461102812193618</v>
+        <v>0.2440884527448555</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3577219131876439</v>
+        <v>0.3616832347524159</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>63</v>
@@ -2090,19 +2090,19 @@
         <v>70239</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>56147</v>
+        <v>56246</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>83916</v>
+        <v>84972</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3145033690034866</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2514057709177288</v>
+        <v>0.2518487702678285</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3757410794874157</v>
+        <v>0.3804698967235986</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>141</v>
@@ -2111,19 +2111,19 @@
         <v>153657</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>132642</v>
+        <v>132882</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>178078</v>
+        <v>176990</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3057734932069221</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2639550347255447</v>
+        <v>0.2644319720364566</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3543703907099463</v>
+        <v>0.3522055494280099</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>195767</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>179314</v>
+        <v>178208</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>210475</v>
+        <v>211039</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7012099568298085</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6422780868123562</v>
+        <v>0.6383167652475842</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7538897187806383</v>
+        <v>0.7559115472551446</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>142</v>
@@ -2161,19 +2161,19 @@
         <v>153095</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>139418</v>
+        <v>138362</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>167187</v>
+        <v>167088</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6854966309965134</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6242589205125844</v>
+        <v>0.6195301032764015</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7485942290822711</v>
+        <v>0.7481512297321715</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>325</v>
@@ -2182,19 +2182,19 @@
         <v>348862</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>324441</v>
+        <v>325529</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>369877</v>
+        <v>369637</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6942265067930778</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6456296092900538</v>
+        <v>0.6477944505719901</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7360449652744554</v>
+        <v>0.7355680279635434</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>90829</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>75570</v>
+        <v>75248</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>108499</v>
+        <v>109708</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2383655728189927</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.198321136644774</v>
+        <v>0.1974752325034742</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2847368884220455</v>
+        <v>0.2879115062443391</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>56</v>
@@ -2307,19 +2307,19 @@
         <v>62144</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>48524</v>
+        <v>48289</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>76143</v>
+        <v>76995</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2423418501673066</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1892262329246571</v>
+        <v>0.1883114615515225</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2969322489904915</v>
+        <v>0.3002546023790795</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>144</v>
@@ -2328,19 +2328,19 @@
         <v>152974</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>131560</v>
+        <v>131194</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>175089</v>
+        <v>176134</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.239965067031833</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2063734583151294</v>
+        <v>0.2057994901724472</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2746564225408086</v>
+        <v>0.2762952641529167</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>290220</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>272550</v>
+        <v>271341</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>305479</v>
+        <v>305801</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7616344271810073</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7152631115779545</v>
+        <v>0.7120884937556609</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8016788633552259</v>
+        <v>0.8025247674965258</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>179</v>
@@ -2378,19 +2378,19 @@
         <v>194289</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>180290</v>
+        <v>179438</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>207909</v>
+        <v>208144</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7576581498326934</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7030677510095082</v>
+        <v>0.6997453976209204</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8107737670753427</v>
+        <v>0.8116885384484768</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>458</v>
@@ -2399,19 +2399,19 @@
         <v>484509</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>462394</v>
+        <v>461349</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>505923</v>
+        <v>506289</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7600349329681669</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7253435774591914</v>
+        <v>0.7237047358470834</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7936265416848706</v>
+        <v>0.7942005098275531</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>109114</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>93065</v>
+        <v>90868</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>129355</v>
+        <v>127546</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2393791880835659</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2041713241023267</v>
+        <v>0.1993508632183117</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2837849405582888</v>
+        <v>0.2798167054889718</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>42</v>
@@ -2524,19 +2524,19 @@
         <v>43830</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>32508</v>
+        <v>33204</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>58116</v>
+        <v>57160</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1572877746785979</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.11665722452638</v>
+        <v>0.1191567209019254</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2085523524103118</v>
+        <v>0.2051221825024341</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>146</v>
@@ -2545,19 +2545,19 @@
         <v>152944</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>129722</v>
+        <v>130894</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>175962</v>
+        <v>179033</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2082337377839031</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1766175561790964</v>
+        <v>0.1782124846718153</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2395730918686056</v>
+        <v>0.2437542315783766</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>346706</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>326465</v>
+        <v>328274</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>362755</v>
+        <v>364952</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7606208119164342</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7162150594417112</v>
+        <v>0.7201832945110282</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7958286758976731</v>
+        <v>0.8006491367816881</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>221</v>
@@ -2595,19 +2595,19 @@
         <v>234832</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>220546</v>
+        <v>221502</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>246154</v>
+        <v>245458</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8427122253214021</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7914476475896881</v>
+        <v>0.794877817497566</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8833427754736201</v>
+        <v>0.8808432790980747</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>547</v>
@@ -2616,19 +2616,19 @@
         <v>581538</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>558520</v>
+        <v>555449</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>604760</v>
+        <v>603588</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7917662622160969</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7604269081313944</v>
+        <v>0.7562457684216233</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8233824438209035</v>
+        <v>0.8217875153281846</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>48091</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>36655</v>
+        <v>36634</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>61390</v>
+        <v>63810</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1628031329518629</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1240879560865692</v>
+        <v>0.1240191011849964</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2078268187618895</v>
+        <v>0.2160195619057867</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>36</v>
@@ -2741,19 +2741,19 @@
         <v>38595</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>27387</v>
+        <v>27650</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>50880</v>
+        <v>51057</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.208063938938787</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.147645766559758</v>
+        <v>0.1490626178169487</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2742963859881588</v>
+        <v>0.275250411583178</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>84</v>
@@ -2762,19 +2762,19 @@
         <v>86685</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>70297</v>
+        <v>69305</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>106795</v>
+        <v>102997</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1802617286046765</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1461823590017395</v>
+        <v>0.1441188266821702</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2220791128344362</v>
+        <v>0.2141807262533922</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>247301</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>234002</v>
+        <v>231582</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>258737</v>
+        <v>258758</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.837196867048137</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7921731812381105</v>
+        <v>0.7839804380942133</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8759120439134308</v>
+        <v>0.8759808988150036</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>132</v>
@@ -2812,19 +2812,19 @@
         <v>146899</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>134614</v>
+        <v>134437</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>158107</v>
+        <v>157844</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7919360610612131</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7257036140118414</v>
+        <v>0.7247495884168218</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.852354233440242</v>
+        <v>0.8509373821830511</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>352</v>
@@ -2833,19 +2833,19 @@
         <v>394201</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>374091</v>
+        <v>377889</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>410589</v>
+        <v>411581</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8197382713953235</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7779208871655637</v>
+        <v>0.7858192737466079</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8538176409982604</v>
+        <v>0.8558811733178298</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>331451</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>302186</v>
+        <v>296938</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>363304</v>
+        <v>362694</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2348309629527857</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2140968455578427</v>
+        <v>0.2103784527402318</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2573983737744522</v>
+        <v>0.2569661078473525</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>197</v>
@@ -2958,19 +2958,19 @@
         <v>214808</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>188964</v>
+        <v>188374</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>240377</v>
+        <v>240209</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2275698989124879</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2001899099050376</v>
+        <v>0.1995646448360729</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2546570936882792</v>
+        <v>0.2544799000773965</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>515</v>
@@ -2979,19 +2979,19 @@
         <v>546260</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>506906</v>
+        <v>502662</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>591627</v>
+        <v>588541</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2319210652018542</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2152129202359519</v>
+        <v>0.213411146067683</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2511819428151504</v>
+        <v>0.2498719255013328</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>1079996</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1048143</v>
+        <v>1048753</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1109261</v>
+        <v>1114509</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7651690370472143</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7426016262255478</v>
+        <v>0.7430338921526477</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7859031544421573</v>
+        <v>0.7896215472597685</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>674</v>
@@ -3029,19 +3029,19 @@
         <v>729115</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>703546</v>
+        <v>703714</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>754959</v>
+        <v>755549</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7724301010875121</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7453429063117206</v>
+        <v>0.7455200999226034</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7998100900949624</v>
+        <v>0.8004353551639269</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1682</v>
@@ -3050,19 +3050,19 @@
         <v>1809111</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1763744</v>
+        <v>1766830</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1848465</v>
+        <v>1852709</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7680789347981458</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7488180571848496</v>
+        <v>0.7501280744986673</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7847870797640482</v>
+        <v>0.7865888539323166</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>82992</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>65922</v>
+        <v>67862</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>99234</v>
+        <v>99366</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.284672380791894</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2261219783527958</v>
+        <v>0.2327758010344793</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3403845402167266</v>
+        <v>0.3408372161248115</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>61</v>
@@ -3415,19 +3415,19 @@
         <v>63284</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>50036</v>
+        <v>49689</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>78191</v>
+        <v>77990</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2299679967967964</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1818259223322189</v>
+        <v>0.1805623253574737</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2841356744142993</v>
+        <v>0.2834062668619862</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>136</v>
@@ -3436,19 +3436,19 @@
         <v>146276</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>128336</v>
+        <v>126152</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>169134</v>
+        <v>169208</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.258109141386671</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2264534296867039</v>
+        <v>0.2225997427503547</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.298442782502207</v>
+        <v>0.2985725917393903</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>208543</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>192301</v>
+        <v>192169</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>225613</v>
+        <v>223673</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7153276192081061</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6596154597832735</v>
+        <v>0.6591627838751886</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7738780216472042</v>
+        <v>0.7672241989655209</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>207</v>
@@ -3486,19 +3486,19 @@
         <v>211904</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>196997</v>
+        <v>197198</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>225152</v>
+        <v>225499</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7700320032032036</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7158643255857007</v>
+        <v>0.7165937331380138</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8181740776677811</v>
+        <v>0.8194376746425264</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>399</v>
@@ -3507,19 +3507,19 @@
         <v>420447</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>397589</v>
+        <v>397515</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>438387</v>
+        <v>440571</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.741890858613329</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.701557217497793</v>
+        <v>0.7014274082606097</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7735465703132962</v>
+        <v>0.7774002572496451</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>109925</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>92773</v>
+        <v>93783</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>128354</v>
+        <v>128101</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2842278075555461</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2398787605085816</v>
+        <v>0.2424899926746724</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3318772539597296</v>
+        <v>0.3312251069514444</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>58</v>
@@ -3632,19 +3632,19 @@
         <v>60142</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>46527</v>
+        <v>47537</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>75649</v>
+        <v>74823</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2234836858488496</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1728919647165699</v>
+        <v>0.176645576738528</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.281106422098917</v>
+        <v>0.2780364376225213</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>163</v>
@@ -3653,19 +3653,19 @@
         <v>170067</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>147890</v>
+        <v>146854</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>193486</v>
+        <v>194163</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2593034585163612</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.225490434213671</v>
+        <v>0.2239102731767932</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2950104572157076</v>
+        <v>0.2960423029131682</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>276825</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>258396</v>
+        <v>258649</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>293977</v>
+        <v>292967</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7157721924444539</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6681227460402704</v>
+        <v>0.6687748930485556</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7601212394914184</v>
+        <v>0.7575100073253278</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>204</v>
@@ -3703,19 +3703,19 @@
         <v>208969</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>193462</v>
+        <v>194288</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>222584</v>
+        <v>221574</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7765163141511504</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.718893577901083</v>
+        <v>0.7219635623774785</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.82710803528343</v>
+        <v>0.8233544232614717</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>467</v>
@@ -3724,19 +3724,19 @@
         <v>485794</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>462375</v>
+        <v>461698</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>507971</v>
+        <v>509007</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7406965414836388</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7049895427842925</v>
+        <v>0.7039576970868319</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.774509565786329</v>
+        <v>0.7760897268232069</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>88114</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>71482</v>
+        <v>71484</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>106173</v>
+        <v>106699</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1936223414334074</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1570765935158728</v>
+        <v>0.1570796331292977</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2333051612940396</v>
+        <v>0.2344621377561643</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>46</v>
@@ -3849,19 +3849,19 @@
         <v>46206</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>34800</v>
+        <v>35239</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>60218</v>
+        <v>59410</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1594976591520238</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1201279056421843</v>
+        <v>0.1216413508515711</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2078664787275174</v>
+        <v>0.2050779156362525</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>129</v>
@@ -3870,19 +3870,19 @@
         <v>134320</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>113640</v>
+        <v>114038</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>156039</v>
+        <v>156161</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1803488646689022</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1525824913623576</v>
+        <v>0.1531169219551158</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2095108562842663</v>
+        <v>0.2096754072195184</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>366966</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>348907</v>
+        <v>348381</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>383598</v>
+        <v>383596</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8063776585665926</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7666948387059604</v>
+        <v>0.7655378622438356</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8429234064841272</v>
+        <v>0.8429203668707023</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>244</v>
@@ -3920,19 +3920,19 @@
         <v>243489</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>229477</v>
+        <v>230285</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>254895</v>
+        <v>254456</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8405023408479761</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7921335212724825</v>
+        <v>0.7949220843637476</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8798720943578157</v>
+        <v>0.878358649148429</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>587</v>
@@ -3941,19 +3941,19 @@
         <v>610456</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>588737</v>
+        <v>588615</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>631136</v>
+        <v>630738</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8196511353310978</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7904891437157336</v>
+        <v>0.7903245927804815</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8474175086376423</v>
+        <v>0.8468830780448842</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>66144</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>53431</v>
+        <v>52774</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>83874</v>
+        <v>82978</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2449429490237626</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1978631925561559</v>
+        <v>0.1954312950454265</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3105980198249058</v>
+        <v>0.3072793320908101</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>42</v>
@@ -4066,19 +4066,19 @@
         <v>46665</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>34888</v>
+        <v>34659</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>60485</v>
+        <v>59412</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2419540422066351</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1808885762659477</v>
+        <v>0.1797011176913476</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3136073824973124</v>
+        <v>0.3080431990233832</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>98</v>
@@ -4087,19 +4087,19 @@
         <v>112810</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>93899</v>
+        <v>94787</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>132319</v>
+        <v>132795</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2436976320587633</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2028456690970463</v>
+        <v>0.2047629807256047</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2858423461984991</v>
+        <v>0.2868704489573644</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>203896</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>186166</v>
+        <v>187062</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>216609</v>
+        <v>217266</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7550570509762373</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6894019801750942</v>
+        <v>0.6927206679091896</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8021368074438441</v>
+        <v>0.8045687049545734</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>141</v>
@@ -4137,19 +4137,19 @@
         <v>146204</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>132384</v>
+        <v>133457</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>157981</v>
+        <v>158210</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7580459577933648</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6863926175026878</v>
+        <v>0.6919568009766169</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8191114237340524</v>
+        <v>0.8202988823086526</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>329</v>
@@ -4158,19 +4158,19 @@
         <v>350099</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>330590</v>
+        <v>330114</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>369010</v>
+        <v>368122</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7563023679412366</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7141576538015009</v>
+        <v>0.7131295510426353</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7971543309029537</v>
+        <v>0.7952370192743947</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>347175</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>313356</v>
+        <v>316382</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>378757</v>
+        <v>380434</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2473805475783542</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2232825468092328</v>
+        <v>0.2254386597046415</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2698840896684847</v>
+        <v>0.27107949654431</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>207</v>
@@ -4283,19 +4283,19 @@
         <v>216298</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>188208</v>
+        <v>193617</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>240083</v>
+        <v>246536</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2106390575256048</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1832841962573031</v>
+        <v>0.188551470116963</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.23380201608937</v>
+        <v>0.2400859162336727</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>526</v>
@@ -4304,19 +4304,19 @@
         <v>563473</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>523861</v>
+        <v>524789</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>605181</v>
+        <v>610295</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.231856129348241</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2155567016603907</v>
+        <v>0.2159386330564317</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2490181179410651</v>
+        <v>0.2511223269268955</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>1056230</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1024648</v>
+        <v>1022971</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1090049</v>
+        <v>1087023</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7526194524216457</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7301159103315152</v>
+        <v>0.7289205034556899</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7767174531907671</v>
+        <v>0.7745613402953578</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>796</v>
@@ -4354,19 +4354,19 @@
         <v>810566</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>786781</v>
+        <v>780328</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>838656</v>
+        <v>833247</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7893609424743951</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7661979839106303</v>
+        <v>0.7599140837663272</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8167158037426971</v>
+        <v>0.811448529883037</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1782</v>
@@ -4375,19 +4375,19 @@
         <v>1866796</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1825088</v>
+        <v>1819974</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1906408</v>
+        <v>1905480</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.768143870651759</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7509818820589349</v>
+        <v>0.7488776730731045</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7844432983396094</v>
+        <v>0.7840613669435683</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>58222</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45761</v>
+        <v>44382</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>72820</v>
+        <v>72029</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.3298895990846804</v>
+        <v>0.3298895990846803</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2592840470779681</v>
+        <v>0.2514709704754247</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4126049590688626</v>
+        <v>0.4081225780538329</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>77</v>
@@ -4740,19 +4740,19 @@
         <v>58066</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>47054</v>
+        <v>46753</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>70736</v>
+        <v>69646</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3454812023349199</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2799612530658204</v>
+        <v>0.2781706683031011</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4208636262815116</v>
+        <v>0.4143807574968454</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>129</v>
@@ -4761,19 +4761,19 @@
         <v>116288</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>97000</v>
+        <v>98433</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>134150</v>
+        <v>134885</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3374949867604763</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2815185734296475</v>
+        <v>0.2856754057113</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3893360171442816</v>
+        <v>0.3914704714322492</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>118267</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>103669</v>
+        <v>104460</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>130728</v>
+        <v>132107</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6701104009153196</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5873950409311374</v>
+        <v>0.5918774219461671</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.740715952922032</v>
+        <v>0.7485290295245752</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>129</v>
@@ -4811,19 +4811,19 @@
         <v>110007</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>97337</v>
+        <v>98427</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>121019</v>
+        <v>121320</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.6545187976650803</v>
+        <v>0.6545187976650801</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5791363737184883</v>
+        <v>0.5856192425031544</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7200387469341795</v>
+        <v>0.7218293316968986</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>220</v>
@@ -4832,19 +4832,19 @@
         <v>228273</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>210411</v>
+        <v>209676</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>247561</v>
+        <v>246128</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.6625050132395238</v>
+        <v>0.6625050132395239</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6106639828557185</v>
+        <v>0.6085295285677508</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7184814265703527</v>
+        <v>0.7143245942887</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>127102</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>108570</v>
+        <v>105716</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>151994</v>
+        <v>150056</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.2585870182990195</v>
+        <v>0.2585870182990194</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.220884034019519</v>
+        <v>0.2150768205981311</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3092284630853814</v>
+        <v>0.3052862189878576</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>136</v>
@@ -4957,19 +4957,19 @@
         <v>104666</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>89898</v>
+        <v>90542</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>121351</v>
+        <v>121378</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.299284419554684</v>
+        <v>0.2992844195546839</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2570575169053966</v>
+        <v>0.2588981616924927</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.346992896707959</v>
+        <v>0.3470720204250336</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>243</v>
@@ -4978,19 +4978,19 @@
         <v>231768</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>207105</v>
+        <v>203725</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>261472</v>
+        <v>258681</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2755056314238735</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2461887162279622</v>
+        <v>0.2421709490277905</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3108155913191545</v>
+        <v>0.3074975263378543</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>364424</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>339532</v>
+        <v>341470</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>382956</v>
+        <v>385810</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7414129817009806</v>
+        <v>0.7414129817009805</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6907715369146186</v>
+        <v>0.6947137810121423</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7791159659804809</v>
+        <v>0.7849231794018688</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>313</v>
@@ -5028,19 +5028,19 @@
         <v>245055</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>228370</v>
+        <v>228343</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>259823</v>
+        <v>259179</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7007155804453161</v>
+        <v>0.700715580445316</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6530071032920404</v>
+        <v>0.6529279795749666</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7429424830946032</v>
+        <v>0.7411018383075073</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>613</v>
@@ -5049,19 +5049,19 @@
         <v>609478</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>579774</v>
+        <v>582565</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>634141</v>
+        <v>637521</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7244943685761266</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6891844086808453</v>
+        <v>0.6925024736621456</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7538112837720377</v>
+        <v>0.7578290509722094</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>96640</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>77783</v>
+        <v>77655</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>117592</v>
+        <v>117395</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1556760543270527</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1252992886248072</v>
+        <v>0.125093176507578</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1894286786231885</v>
+        <v>0.1891111196884561</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>138</v>
@@ -5174,19 +5174,19 @@
         <v>94433</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>80199</v>
+        <v>79256</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>108998</v>
+        <v>109519</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1935205205745766</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1643502848011157</v>
+        <v>0.1624189694642413</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2233679294073858</v>
+        <v>0.2244360825917905</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>226</v>
@@ -5195,19 +5195,19 @@
         <v>191073</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>166047</v>
+        <v>168346</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>215424</v>
+        <v>215209</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1723319174795062</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.149760484305761</v>
+        <v>0.151834330220717</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1942950251469724</v>
+        <v>0.1941008144837233</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>524134</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>503182</v>
+        <v>503379</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>542991</v>
+        <v>543119</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8443239456729473</v>
+        <v>0.8443239456729472</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8105713213768113</v>
+        <v>0.8108888803115442</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8747007113751932</v>
+        <v>0.8749068234924221</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>532</v>
@@ -5245,19 +5245,19 @@
         <v>393542</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>378977</v>
+        <v>378456</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>407776</v>
+        <v>408719</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8064794794254234</v>
+        <v>0.8064794794254235</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7766320705926142</v>
+        <v>0.7755639174082095</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8356497151988844</v>
+        <v>0.8375810305357586</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>997</v>
@@ -5266,19 +5266,19 @@
         <v>917676</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>893325</v>
+        <v>893540</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>942702</v>
+        <v>940403</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8276680825204937</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8057049748530274</v>
+        <v>0.8058991855162767</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8502395156942389</v>
+        <v>0.8481656697792831</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>98472</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>79178</v>
+        <v>79938</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>119392</v>
+        <v>119002</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1676860768563096</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1348313484142369</v>
+        <v>0.1361259987086949</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2033111844780814</v>
+        <v>0.2026471580540579</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>113</v>
@@ -5391,19 +5391,19 @@
         <v>81855</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>68577</v>
+        <v>68700</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>98657</v>
+        <v>96047</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1783099812152898</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.149386690964601</v>
+        <v>0.149653808760974</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2149115346335967</v>
+        <v>0.2092262240064139</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>198</v>
@@ -5412,19 +5412,19 @@
         <v>180327</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>154915</v>
+        <v>154435</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>207292</v>
+        <v>203924</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.172347280674664</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.148059877223222</v>
+        <v>0.1476008865618514</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1981193096982573</v>
+        <v>0.1949009272805949</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>488766</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>467846</v>
+        <v>468236</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>508060</v>
+        <v>507300</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8323139231436905</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7966888155219187</v>
+        <v>0.797352841945942</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8651686515857632</v>
+        <v>0.8638740012913051</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>527</v>
@@ -5462,19 +5462,19 @@
         <v>377205</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>360403</v>
+        <v>363013</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>390483</v>
+        <v>390360</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8216900187847103</v>
+        <v>0.8216900187847102</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.785088465366403</v>
+        <v>0.790773775993586</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8506133090353981</v>
+        <v>0.850346191239026</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>961</v>
@@ -5483,19 +5483,19 @@
         <v>865971</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>839006</v>
+        <v>842374</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>891383</v>
+        <v>891863</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.827652719325336</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8018806903017425</v>
+        <v>0.8050990727194051</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8519401227767779</v>
+        <v>0.8523991134381484</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>380435</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>343677</v>
+        <v>344306</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>419843</v>
+        <v>423119</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2027877903432448</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1831940628214502</v>
+        <v>0.1835295780530631</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2237937322467449</v>
+        <v>0.2255398950521385</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>464</v>
@@ -5608,19 +5608,19 @@
         <v>339020</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>309864</v>
+        <v>312213</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>368018</v>
+        <v>367617</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2314401153821935</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2115361407772577</v>
+        <v>0.2131396318580242</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2512364802106218</v>
+        <v>0.2509623984954107</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>796</v>
@@ -5629,19 +5629,19 @@
         <v>719455</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>673692</v>
+        <v>674136</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>766621</v>
+        <v>769364</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2153506678031634</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2016525539352809</v>
+        <v>0.2017855066026263</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2294684316768094</v>
+        <v>0.2302895566316711</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>1495591</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1456183</v>
+        <v>1452907</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1532349</v>
+        <v>1531720</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7972122096567553</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7762062677532551</v>
+        <v>0.7744601049478614</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8168059371785499</v>
+        <v>0.8164704219469368</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1501</v>
@@ -5679,19 +5679,19 @@
         <v>1125809</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1096811</v>
+        <v>1097212</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1154965</v>
+        <v>1152616</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7685598846178066</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7487635197893787</v>
+        <v>0.7490376015045892</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7884638592227421</v>
+        <v>0.7868603681419758</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2791</v>
@@ -5700,19 +5700,19 @@
         <v>2621399</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2574233</v>
+        <v>2571490</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2667162</v>
+        <v>2666718</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7846493321968365</v>
+        <v>0.7846493321968364</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7705315683231906</v>
+        <v>0.7697104433683289</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7983474460647191</v>
+        <v>0.7982144933973738</v>
       </c>
     </row>
     <row r="18">
